--- a/CohoLifeCycle.xlsx
+++ b/CohoLifeCycle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evogt\R Analysis\EAV\GitHubMarkdown\SimmsCreek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADA10C7-1A25-4638-BE18-B0D0239A4A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB980F25-3027-4E58-BC59-419A3D25E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DE82BE4-BDA3-4075-B249-616CD1D441A5}"/>
+    <workbookView xWindow="-38190" yWindow="1410" windowWidth="18165" windowHeight="15285" xr2:uid="{6DE82BE4-BDA3-4075-B249-616CD1D441A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="22">
   <si>
     <t>Spawn</t>
   </si>
@@ -83,12 +83,6 @@
     <t>December</t>
   </si>
   <si>
-    <t>Age-0</t>
-  </si>
-  <si>
-    <t>Age-1</t>
-  </si>
-  <si>
     <t>Instream</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>Spawn (Age 3)</t>
+  </si>
+  <si>
+    <t>Smolt (Age-1 )</t>
+  </si>
+  <si>
+    <t>Smolt (Age-0)</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mmmm"/>
+    <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,17 +530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB044898-348F-45F2-866A-A25A23C2C490}">
   <dimension ref="A3:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -551,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -562,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -573,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6:A63" si="0">IF(B6=1,1+A5,A5)</f>
         <v>0</v>
@@ -585,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -597,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -609,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -621,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -633,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -645,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -657,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -669,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -683,8 +686,11 @@
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -696,13 +702,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -714,13 +720,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -732,13 +738,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -750,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -768,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -786,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -804,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -822,13 +828,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -840,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -858,13 +864,13 @@
         <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -876,13 +882,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -894,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -918,19 +924,19 @@
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -942,19 +948,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -966,19 +972,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -990,19 +996,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1014,19 +1020,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1038,19 +1044,19 @@
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1062,19 +1068,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1086,19 +1092,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1110,19 +1116,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1134,19 +1140,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1158,19 +1164,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1182,19 +1188,19 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1206,16 +1212,16 @@
         <v>14</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1227,16 +1233,16 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1248,16 +1254,16 @@
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1269,16 +1275,16 @@
         <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1290,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1311,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1332,16 +1338,16 @@
         <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1353,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1371,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1389,13 +1395,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1407,13 +1413,13 @@
         <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1425,13 +1431,13 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1443,7 +1449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1455,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1467,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1479,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1491,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1503,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1515,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1527,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1539,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1551,7 +1557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1563,7 +1569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1575,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1587,40 +1593,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
     </row>
   </sheetData>
